--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>959915.2121902152</v>
+        <v>965407.5191529959</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7966425.477977806</v>
+        <v>7966425.477977804</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7800994.142117399</v>
+        <v>7800994.142117398</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>381.4245878309423</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>75.55566364162144</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -820,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.03638470914571</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>54.14314082625967</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>362.0199558049727</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -1054,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>131.6846499321094</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>167.1177217949931</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.16398508659393</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,16 +1189,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>119.1925182577399</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1294,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>53.03638470914571</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,19 +1375,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>245.6821827394222</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>66.68447052885355</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>164.8484195083599</v>
@@ -1424,16 +1426,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1531,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>53.03638470914571</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -1622,10 +1624,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3.119925841949662</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>87.76030994385621</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864687</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
@@ -1777,7 +1779,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>142.9126242536663</v>
       </c>
       <c r="H16" t="n">
         <v>153.923765528121</v>
@@ -1786,7 +1788,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>361.996739518899</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>19.50954008961241</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>125.6476561767118</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2059,16 +2061,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.61153143263797</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>100.3016396464502</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>133.5461737957331</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>92.5074654407841</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2260,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>53.03638470914613</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
@@ -2333,7 +2335,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>205.7229779818977</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>165.4757796493028</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>194.9632162960284</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>66.03149870010103</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2564,16 +2566,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>287.0785698144271</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>273.6047253232931</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>159.3149947016329</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>47.76759414464944</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2767,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>135.0859970817781</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>121.0638920344696</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>59.70065638348617</v>
+        <v>26.71458769549607</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>59.48809448388525</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>132.192128876087</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
@@ -3095,7 +3097,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3187,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>93.52529077486047</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>66.03149870010103</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>122.5446673791842</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>4.419382261897811</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -3445,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,13 +3486,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>164.8887288238693</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
     </row>
     <row r="38">
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3512,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>135.085997081778</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>221.2655964161775</v>
@@ -3569,7 +3571,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>198.7918682379019</v>
       </c>
     </row>
     <row r="39">
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.52529077486058</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
@@ -3679,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>21.02210665936476</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3752,7 +3754,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>256.7115579699407</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>195.6255244520054</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>155.6053465906474</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>115.2540412271705</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,13 +3982,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>409.0311279568768</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>66.35326163910644</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>229.2671475085639</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>181.5440065831534</v>
+        <v>165.2599640362304</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1319.638135031227</v>
+        <v>2142.457375356031</v>
       </c>
       <c r="C2" t="n">
-        <v>926.4626335341572</v>
+        <v>2142.457375356031</v>
       </c>
       <c r="D2" t="n">
-        <v>541.021504750825</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E2" t="n">
-        <v>138.4379798673695</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F2" t="n">
-        <v>62.11912770411553</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G2" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H2" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I2" t="n">
         <v>62.11912770411553</v>
@@ -4352,28 +4354,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S2" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T2" t="n">
-        <v>2677.949313991765</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U2" t="n">
-        <v>2422.196584426364</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V2" t="n">
-        <v>2080.089775129883</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="W2" t="n">
-        <v>1709.09074009817</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="X2" t="n">
-        <v>1319.638135031227</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="Y2" t="n">
-        <v>1319.638135031227</v>
+        <v>2542.952121067428</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4412,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K3" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L3" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M3" t="n">
-        <v>1208.156408878212</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N3" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O3" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P3" t="n">
         <v>2380.454662679751</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C4" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D4" t="n">
-        <v>62.11912770411553</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E4" t="n">
-        <v>62.11912770411553</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F4" t="n">
-        <v>62.11912770411553</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G4" t="n">
-        <v>62.11912770411553</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H4" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I4" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J4" t="n">
         <v>62.11912770411553</v>
@@ -4510,28 +4512,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R4" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S4" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T4" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U4" t="n">
-        <v>115.6912334709294</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V4" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W4" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X4" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y4" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1206.412481019843</v>
+        <v>868.4573847131818</v>
       </c>
       <c r="C5" t="n">
-        <v>813.2369795227737</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="D5" t="n">
-        <v>427.7958507394414</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="E5" t="n">
-        <v>427.7958507394414</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="F5" t="n">
-        <v>62.11912770411553</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G5" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H5" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I5" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J5" t="n">
         <v>206.7689006129436</v>
@@ -4589,28 +4591,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R5" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S5" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T5" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U5" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V5" t="n">
-        <v>2763.849575909295</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W5" t="n">
-        <v>2392.850540877582</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X5" t="n">
-        <v>2003.397935810639</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y5" t="n">
-        <v>1606.90722673124</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4646,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K6" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L6" t="n">
-        <v>658.8001958221562</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M6" t="n">
-        <v>1208.156408878212</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N6" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O6" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P6" t="n">
         <v>2380.454662679751</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>232.3242456381263</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="C7" t="n">
-        <v>62.11912770411553</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="D7" t="n">
-        <v>62.11912770411553</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="E7" t="n">
-        <v>62.11912770411553</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F7" t="n">
-        <v>62.11912770411553</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G7" t="n">
-        <v>62.11912770411553</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H7" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I7" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J7" t="n">
         <v>62.11912770411553</v>
@@ -4750,25 +4752,25 @@
         <v>839.6651608782449</v>
       </c>
       <c r="S7" t="n">
-        <v>636.8490770607943</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="T7" t="n">
-        <v>401.1300252290284</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="U7" t="n">
-        <v>232.3242456381263</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="V7" t="n">
-        <v>232.3242456381263</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="W7" t="n">
-        <v>232.3242456381263</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="X7" t="n">
-        <v>232.3242456381263</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="Y7" t="n">
-        <v>232.3242456381263</v>
+        <v>839.6651608782449</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2073.376476849992</v>
+        <v>996.2152709921756</v>
       </c>
       <c r="C8" t="n">
-        <v>1680.200975352922</v>
+        <v>603.0397694951062</v>
       </c>
       <c r="D8" t="n">
-        <v>1294.75984656959</v>
+        <v>603.0397694951062</v>
       </c>
       <c r="E8" t="n">
-        <v>892.1763216861347</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="F8" t="n">
-        <v>475.2818832161124</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="G8" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H8" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I8" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J8" t="n">
         <v>206.7689006129436</v>
@@ -4826,28 +4828,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S8" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T8" t="n">
-        <v>2844.462869050715</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U8" t="n">
-        <v>2844.462869050715</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="V8" t="n">
-        <v>2502.356059754233</v>
+        <v>2284.59624390331</v>
       </c>
       <c r="W8" t="n">
-        <v>2502.356059754233</v>
+        <v>1913.597208871598</v>
       </c>
       <c r="X8" t="n">
-        <v>2502.356059754233</v>
+        <v>1793.200725782971</v>
       </c>
       <c r="Y8" t="n">
-        <v>2105.865350674834</v>
+        <v>1396.710016703573</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4889,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L9" t="n">
-        <v>174.7633905351325</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M9" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N9" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O9" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P9" t="n">
         <v>2380.454662679751</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D10" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E10" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F10" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G10" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H10" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J10" t="n">
         <v>62.11912770411553</v>
@@ -4984,28 +4986,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R10" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S10" t="n">
-        <v>963.5661502456679</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T10" t="n">
-        <v>963.5661502456679</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="U10" t="n">
-        <v>963.5661502456679</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="V10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="W10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>522.652680240431</v>
+        <v>1918.956772915448</v>
       </c>
       <c r="C11" t="n">
-        <v>129.4771787433615</v>
+        <v>1525.781271418378</v>
       </c>
       <c r="D11" t="n">
-        <v>129.4771787433615</v>
+        <v>1140.340142635046</v>
       </c>
       <c r="E11" t="n">
-        <v>129.4771787433615</v>
+        <v>892.1763216861345</v>
       </c>
       <c r="F11" t="n">
-        <v>129.4771787433615</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G11" t="n">
-        <v>129.4771787433615</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J11" t="n">
         <v>206.7689006129436</v>
@@ -5063,28 +5065,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T11" t="n">
-        <v>2677.949313991765</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U11" t="n">
-        <v>2422.196584426364</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="V11" t="n">
-        <v>2080.089775129883</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="W11" t="n">
-        <v>1709.09074009817</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="X11" t="n">
-        <v>1319.638135031227</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="Y11" t="n">
-        <v>923.1474259518279</v>
+        <v>2319.451518626845</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K12" t="n">
-        <v>84.60386270860994</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L12" t="n">
-        <v>568.1699486069232</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D13" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E13" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F13" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G13" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H13" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K13" t="n">
         <v>143.9541688140574</v>
@@ -5221,28 +5223,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R13" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S13" t="n">
-        <v>963.5661502456679</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T13" t="n">
-        <v>963.5661502456679</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="U13" t="n">
-        <v>963.5661502456679</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="V13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="W13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="X13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2535.796644191037</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="C14" t="n">
-        <v>2142.621142693967</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D14" t="n">
-        <v>1757.180013910635</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E14" t="n">
-        <v>1354.596489027179</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F14" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G14" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5300,28 +5302,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3102.804944961383</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>2936.291389902433</v>
+        <v>3017.309607484709</v>
       </c>
       <c r="T14" t="n">
-        <v>2936.291389902433</v>
+        <v>2793.809005044126</v>
       </c>
       <c r="U14" t="n">
-        <v>2936.291389902433</v>
+        <v>2793.809005044126</v>
       </c>
       <c r="V14" t="n">
-        <v>2936.291389902433</v>
+        <v>2451.702195747645</v>
       </c>
       <c r="W14" t="n">
-        <v>2936.291389902433</v>
+        <v>2080.703160715932</v>
       </c>
       <c r="X14" t="n">
-        <v>2936.291389902433</v>
+        <v>1691.250555648989</v>
       </c>
       <c r="Y14" t="n">
-        <v>2936.291389902433</v>
+        <v>1294.75984656959</v>
       </c>
     </row>
     <row r="15">
@@ -5367,13 +5369,13 @@
         <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5416,22 +5418,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="D16" t="n">
-        <v>862.2091751078208</v>
+        <v>807.9330371481826</v>
       </c>
       <c r="E16" t="n">
-        <v>706.6503629670233</v>
+        <v>652.3742250073851</v>
       </c>
       <c r="F16" t="n">
-        <v>549.3244281799962</v>
+        <v>495.0482902203581</v>
       </c>
       <c r="G16" t="n">
-        <v>381.0703742794417</v>
+        <v>350.6921041055436</v>
       </c>
       <c r="H16" t="n">
-        <v>225.5918232409357</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="I16" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
         <v>62.11912770411553</v>
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>941.4337335151823</v>
+        <v>2535.796644191037</v>
       </c>
       <c r="C17" t="n">
-        <v>941.4337335151823</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="D17" t="n">
-        <v>941.4337335151823</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E17" t="n">
-        <v>941.4337335151823</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F17" t="n">
-        <v>524.5392950451601</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G17" t="n">
         <v>524.5392950451601</v>
@@ -5537,28 +5539,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3086.249779054653</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S17" t="n">
-        <v>2919.736223995703</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T17" t="n">
-        <v>2696.23562155512</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U17" t="n">
-        <v>2440.482891989719</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="V17" t="n">
-        <v>2098.376082693237</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="W17" t="n">
-        <v>1727.377047661525</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="X17" t="n">
-        <v>1337.924442594581</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="Y17" t="n">
-        <v>941.4337335151823</v>
+        <v>2901.449916432349</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.11912770411553</v>
+        <v>189.0359521250365</v>
       </c>
       <c r="C19" t="n">
         <v>62.11912770411553</v>
@@ -5707,16 +5709,16 @@
         <v>678.1273584875689</v>
       </c>
       <c r="V19" t="n">
-        <v>678.1273584875689</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W19" t="n">
-        <v>394.7969564187466</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="X19" t="n">
-        <v>160.7166342017296</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.11912770411553</v>
+        <v>189.0359521250365</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>881.5970910575932</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="C20" t="n">
-        <v>881.5970910575932</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="D20" t="n">
-        <v>881.5970910575932</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="E20" t="n">
-        <v>479.0135661741377</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F20" t="n">
-        <v>62.11912770411553</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G20" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H20" t="n">
         <v>62.11912770411553</v>
@@ -5777,25 +5779,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3004.641597684109</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T20" t="n">
-        <v>2781.140995243526</v>
+        <v>2971.061260159581</v>
       </c>
       <c r="U20" t="n">
-        <v>2781.140995243526</v>
+        <v>2715.30853059418</v>
       </c>
       <c r="V20" t="n">
-        <v>2439.034185947045</v>
+        <v>2373.201721297698</v>
       </c>
       <c r="W20" t="n">
-        <v>2068.035150915332</v>
+        <v>2002.202686265986</v>
       </c>
       <c r="X20" t="n">
-        <v>1678.582545848389</v>
+        <v>1612.750081199043</v>
       </c>
       <c r="Y20" t="n">
-        <v>1282.09183676899</v>
+        <v>1216.259372119644</v>
       </c>
     </row>
     <row r="21">
@@ -5835,16 +5837,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>174.7633905351325</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M21" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>654.4571421869437</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="C22" t="n">
-        <v>561.0152579033233</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="D22" t="n">
-        <v>405.3821448058382</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E22" t="n">
-        <v>249.8233326650406</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F22" t="n">
-        <v>92.49739787801357</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G22" t="n">
-        <v>92.49739787801357</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H22" t="n">
-        <v>92.49739787801357</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I22" t="n">
-        <v>92.49739787801357</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q22" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R22" t="n">
-        <v>839.6651608782449</v>
+        <v>2982.055395838353</v>
       </c>
       <c r="S22" t="n">
-        <v>839.6651608782449</v>
+        <v>2779.239312020903</v>
       </c>
       <c r="T22" t="n">
-        <v>839.6651608782449</v>
+        <v>2543.520260189137</v>
       </c>
       <c r="U22" t="n">
-        <v>839.6651608782449</v>
+        <v>2258.081468431038</v>
       </c>
       <c r="V22" t="n">
-        <v>839.6651608782449</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="W22" t="n">
-        <v>839.6651608782449</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="X22" t="n">
-        <v>839.6651608782449</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="Y22" t="n">
-        <v>839.6651608782449</v>
+        <v>2204.509362664224</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1888.001963213425</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="C23" t="n">
-        <v>1888.001963213425</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="D23" t="n">
-        <v>1502.560834430093</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="E23" t="n">
-        <v>1099.977309546637</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F23" t="n">
-        <v>683.0828710766151</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G23" t="n">
-        <v>269.9201155646182</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6011,28 +6013,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T23" t="n">
-        <v>2677.949313991765</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U23" t="n">
-        <v>2677.949313991765</v>
+        <v>2715.30853059418</v>
       </c>
       <c r="V23" t="n">
-        <v>2677.949313991765</v>
+        <v>2373.201721297698</v>
       </c>
       <c r="W23" t="n">
-        <v>2677.949313991765</v>
+        <v>2002.202686265986</v>
       </c>
       <c r="X23" t="n">
-        <v>2288.496708924822</v>
+        <v>1612.750081199043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2288.496708924822</v>
+        <v>1216.259372119644</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6071,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>346.9752758473783</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>830.5413617456916</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M24" t="n">
-        <v>1458.313011372373</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2267.810399848734</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="C25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="D25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q25" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R25" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S25" t="n">
-        <v>760.7500664282172</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T25" t="n">
-        <v>525.0310145964513</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U25" t="n">
-        <v>328.0984728832913</v>
+        <v>2820.517593447677</v>
       </c>
       <c r="V25" t="n">
-        <v>62.11912770411553</v>
+        <v>2554.538248268502</v>
       </c>
       <c r="W25" t="n">
-        <v>62.11912770411553</v>
+        <v>2271.207846199679</v>
       </c>
       <c r="X25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1381.656399775508</v>
+        <v>2363.354830197898</v>
       </c>
       <c r="C26" t="n">
-        <v>988.4808982784384</v>
+        <v>1970.179328700829</v>
       </c>
       <c r="D26" t="n">
-        <v>603.0397694951062</v>
+        <v>1584.738199917496</v>
       </c>
       <c r="E26" t="n">
-        <v>200.4562446116507</v>
+        <v>1182.154675034041</v>
       </c>
       <c r="F26" t="n">
-        <v>200.4562446116507</v>
+        <v>765.2602365640186</v>
       </c>
       <c r="G26" t="n">
-        <v>200.4562446116507</v>
+        <v>352.0974810520217</v>
       </c>
       <c r="H26" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I26" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J26" t="n">
         <v>206.7689006129436</v>
@@ -6248,28 +6250,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R26" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>2844.462869050715</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U26" t="n">
-        <v>2844.462869050715</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V26" t="n">
-        <v>2844.462869050715</v>
+        <v>2763.849575909295</v>
       </c>
       <c r="W26" t="n">
-        <v>2568.094459633247</v>
+        <v>2763.849575909295</v>
       </c>
       <c r="X26" t="n">
-        <v>2178.641854566304</v>
+        <v>2763.849575909295</v>
       </c>
       <c r="Y26" t="n">
-        <v>1782.151145486905</v>
+        <v>2763.849575909295</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6308,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K27" t="n">
-        <v>381.858273766342</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="L27" t="n">
-        <v>381.858273766342</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M27" t="n">
-        <v>1009.629923393023</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N27" t="n">
-        <v>1665.407894603582</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O27" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P27" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>444.047036270552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C28" t="n">
-        <v>273.8419183365412</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D28" t="n">
-        <v>273.8419183365412</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E28" t="n">
-        <v>273.8419183365412</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F28" t="n">
-        <v>273.8419183365412</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G28" t="n">
-        <v>273.8419183365412</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H28" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I28" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
         <v>62.11912770411553</v>
@@ -6415,19 +6417,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U28" t="n">
-        <v>678.1273584875689</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V28" t="n">
-        <v>678.1273584875689</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W28" t="n">
-        <v>678.1273584875689</v>
+        <v>680.2357481768456</v>
       </c>
       <c r="X28" t="n">
-        <v>444.047036270552</v>
+        <v>446.1554259598287</v>
       </c>
       <c r="Y28" t="n">
-        <v>444.047036270552</v>
+        <v>223.043364776472</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1660.213721337995</v>
+        <v>522.652680240431</v>
       </c>
       <c r="C29" t="n">
-        <v>1267.038219840925</v>
+        <v>522.652680240431</v>
       </c>
       <c r="D29" t="n">
-        <v>881.5970910575932</v>
+        <v>522.652680240431</v>
       </c>
       <c r="E29" t="n">
-        <v>479.0135661741377</v>
+        <v>522.652680240431</v>
       </c>
       <c r="F29" t="n">
-        <v>62.11912770411553</v>
+        <v>522.652680240431</v>
       </c>
       <c r="G29" t="n">
-        <v>62.11912770411553</v>
+        <v>522.652680240431</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411553</v>
+        <v>198.5696298069216</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J29" t="n">
         <v>206.7689006129436</v>
@@ -6485,28 +6487,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S29" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T29" t="n">
-        <v>2817.15607051605</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U29" t="n">
-        <v>2817.15607051605</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V29" t="n">
-        <v>2817.15607051605</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W29" t="n">
-        <v>2446.157035484337</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X29" t="n">
-        <v>2056.704430417394</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y29" t="n">
-        <v>1660.213721337995</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="30">
@@ -6549,16 +6551,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M30" t="n">
-        <v>1493.196009291336</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2528.241967603284</v>
+        <v>2374.714480598234</v>
       </c>
       <c r="C31" t="n">
-        <v>2528.241967603284</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="D31" t="n">
-        <v>2528.241967603284</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E31" t="n">
-        <v>2528.241967603284</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F31" t="n">
-        <v>2528.241967603284</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G31" t="n">
-        <v>2359.98791370273</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H31" t="n">
         <v>2204.509362664224</v>
@@ -6649,22 +6651,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T31" t="n">
-        <v>3105.956385205776</v>
+        <v>2870.237333374011</v>
       </c>
       <c r="U31" t="n">
-        <v>3105.956385205776</v>
+        <v>2870.237333374011</v>
       </c>
       <c r="V31" t="n">
-        <v>3105.956385205776</v>
+        <v>2870.237333374011</v>
       </c>
       <c r="W31" t="n">
-        <v>2822.625983136954</v>
+        <v>2586.906931305188</v>
       </c>
       <c r="X31" t="n">
-        <v>2588.545660919937</v>
+        <v>2586.906931305188</v>
       </c>
       <c r="Y31" t="n">
-        <v>2528.241967603284</v>
+        <v>2559.922499289536</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2178.991190048171</v>
+        <v>593.6317461087201</v>
       </c>
       <c r="C32" t="n">
-        <v>1785.815688551102</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.374559767769</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="E32" t="n">
-        <v>997.7910348843138</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="F32" t="n">
-        <v>937.702050557157</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="G32" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H32" t="n">
         <v>200.4562446116507</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J32" t="n">
         <v>206.7689006129436</v>
@@ -6725,25 +6727,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>2939.442830146827</v>
+        <v>2972.428982300638</v>
       </c>
       <c r="T32" t="n">
-        <v>2939.442830146827</v>
+        <v>2748.928379860055</v>
       </c>
       <c r="U32" t="n">
-        <v>2939.442830146827</v>
+        <v>2493.175650294653</v>
       </c>
       <c r="V32" t="n">
-        <v>2939.442830146827</v>
+        <v>2151.068840998172</v>
       </c>
       <c r="W32" t="n">
-        <v>2568.443795115114</v>
+        <v>1780.069805966459</v>
       </c>
       <c r="X32" t="n">
-        <v>2178.991190048171</v>
+        <v>1390.617200899516</v>
       </c>
       <c r="Y32" t="n">
-        <v>2178.991190048171</v>
+        <v>994.1264918201171</v>
       </c>
     </row>
     <row r="33">
@@ -6777,16 +6779,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>84.60386270860994</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>84.60386270860994</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N33" t="n">
         <v>1223.947919817482</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2204.509362664224</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="C34" t="n">
-        <v>2204.509362664224</v>
+        <v>2935.751267271766</v>
       </c>
       <c r="D34" t="n">
-        <v>2204.509362664224</v>
+        <v>2780.11815417428</v>
       </c>
       <c r="E34" t="n">
-        <v>2204.509362664224</v>
+        <v>2624.559342033483</v>
       </c>
       <c r="F34" t="n">
-        <v>2204.509362664224</v>
+        <v>2467.233407246455</v>
       </c>
       <c r="G34" t="n">
-        <v>2204.509362664224</v>
+        <v>2298.979353345901</v>
       </c>
       <c r="H34" t="n">
         <v>2204.509362664224</v>
@@ -6886,22 +6888,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T34" t="n">
-        <v>3039.257901670321</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U34" t="n">
-        <v>2753.819109912222</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V34" t="n">
-        <v>2487.839764733046</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W34" t="n">
-        <v>2204.509362664224</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X34" t="n">
-        <v>2204.509362664224</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y34" t="n">
-        <v>2204.509362664224</v>
+        <v>3105.956385205776</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>799.3649336496217</v>
+        <v>1206.412481019843</v>
       </c>
       <c r="C35" t="n">
-        <v>799.3649336496217</v>
+        <v>1206.412481019843</v>
       </c>
       <c r="D35" t="n">
-        <v>799.3649336496217</v>
+        <v>1206.412481019843</v>
       </c>
       <c r="E35" t="n">
-        <v>799.3649336496217</v>
+        <v>803.8289561363872</v>
       </c>
       <c r="F35" t="n">
-        <v>799.3649336496217</v>
+        <v>803.8289561363872</v>
       </c>
       <c r="G35" t="n">
-        <v>386.2021781376249</v>
+        <v>390.6662006243903</v>
       </c>
       <c r="H35" t="n">
-        <v>62.11912770411553</v>
+        <v>66.58315019088099</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6953,34 +6955,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T35" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U35" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V35" t="n">
-        <v>2080.089775129883</v>
+        <v>2763.849575909294</v>
       </c>
       <c r="W35" t="n">
-        <v>1709.09074009817</v>
+        <v>2392.850540877582</v>
       </c>
       <c r="X35" t="n">
-        <v>1319.638135031227</v>
+        <v>2003.397935810639</v>
       </c>
       <c r="Y35" t="n">
-        <v>923.1474259518279</v>
+        <v>1606.90722673124</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N36" t="n">
-        <v>1829.234834439669</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O36" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>92.49739787801357</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="C37" t="n">
-        <v>92.49739787801357</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="D37" t="n">
-        <v>92.49739787801357</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="E37" t="n">
-        <v>92.49739787801357</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="F37" t="n">
-        <v>92.49739787801357</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="G37" t="n">
-        <v>92.49739787801357</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="H37" t="n">
-        <v>92.49739787801357</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="I37" t="n">
-        <v>92.49739787801357</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774165</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059146</v>
       </c>
       <c r="P37" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q37" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R37" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S37" t="n">
-        <v>760.7500664282172</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T37" t="n">
-        <v>525.0310145964513</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U37" t="n">
-        <v>525.0310145964513</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V37" t="n">
-        <v>259.0516694172755</v>
+        <v>2839.9770400266</v>
       </c>
       <c r="W37" t="n">
-        <v>92.49739787801357</v>
+        <v>2556.646637957778</v>
       </c>
       <c r="X37" t="n">
-        <v>92.49739787801357</v>
+        <v>2322.566315740761</v>
       </c>
       <c r="Y37" t="n">
-        <v>92.49739787801357</v>
+        <v>2204.509362664223</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>522.652680240431</v>
+        <v>1285.351823183204</v>
       </c>
       <c r="C38" t="n">
-        <v>522.652680240431</v>
+        <v>892.1763216861345</v>
       </c>
       <c r="D38" t="n">
-        <v>522.652680240431</v>
+        <v>892.1763216861345</v>
       </c>
       <c r="E38" t="n">
-        <v>522.652680240431</v>
+        <v>892.1763216861345</v>
       </c>
       <c r="F38" t="n">
-        <v>522.652680240431</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G38" t="n">
-        <v>522.652680240431</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H38" t="n">
-        <v>198.5696298069216</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7190,7 +7192,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
@@ -7199,25 +7201,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S38" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T38" t="n">
-        <v>2677.949313991765</v>
+        <v>2844.462869050714</v>
       </c>
       <c r="U38" t="n">
-        <v>2422.196584426364</v>
+        <v>2588.710139485313</v>
       </c>
       <c r="V38" t="n">
-        <v>2080.089775129883</v>
+        <v>2246.603330188831</v>
       </c>
       <c r="W38" t="n">
-        <v>1709.09074009817</v>
+        <v>1875.604295157119</v>
       </c>
       <c r="X38" t="n">
-        <v>1319.638135031227</v>
+        <v>1486.151690090176</v>
       </c>
       <c r="Y38" t="n">
-        <v>923.1474259518279</v>
+        <v>1285.351823183204</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7250,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L39" t="n">
-        <v>381.858273766342</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M39" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P39" t="n">
         <v>2380.454662679751</v>
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.0961595639906</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="C40" t="n">
-        <v>698.8910416299798</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="D40" t="n">
-        <v>543.2579285324946</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="E40" t="n">
-        <v>387.699116391697</v>
+        <v>542.0279929256947</v>
       </c>
       <c r="F40" t="n">
-        <v>230.37318160467</v>
+        <v>384.7020581386676</v>
       </c>
       <c r="G40" t="n">
-        <v>62.11912770411553</v>
+        <v>216.4480042381132</v>
       </c>
       <c r="H40" t="n">
-        <v>62.11912770411553</v>
+        <v>216.4480042381132</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>83.35357887519103</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K40" t="n">
         <v>143.9541688140574</v>
@@ -7366,16 +7368,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="V40" t="n">
-        <v>963.5661502456679</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="W40" t="n">
-        <v>963.5661502456679</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="X40" t="n">
-        <v>963.5661502456679</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="Y40" t="n">
-        <v>963.5661502456679</v>
+        <v>697.5868050664922</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2073.376476849992</v>
+        <v>1919.518325348036</v>
       </c>
       <c r="C41" t="n">
-        <v>1680.200975352922</v>
+        <v>1526.342823850967</v>
       </c>
       <c r="D41" t="n">
-        <v>1294.75984656959</v>
+        <v>1140.901695067634</v>
       </c>
       <c r="E41" t="n">
-        <v>892.1763216861347</v>
+        <v>738.3181701841788</v>
       </c>
       <c r="F41" t="n">
-        <v>475.2818832161124</v>
+        <v>321.4237317141566</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129432</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404055</v>
+        <v>565.751256640405</v>
       </c>
       <c r="L41" t="n">
         <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403514</v>
       </c>
       <c r="N41" t="n">
         <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R41" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S41" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="T41" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="U41" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="V41" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="W41" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="X41" t="n">
-        <v>2870.361931640788</v>
+        <v>2716.503780138832</v>
       </c>
       <c r="Y41" t="n">
-        <v>2473.871222561389</v>
+        <v>2320.013071059433</v>
       </c>
     </row>
     <row r="42">
@@ -7473,10 +7475,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E42" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F42" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G42" t="n">
         <v>199.803798091603</v>
@@ -7485,28 +7487,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860693</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="C43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="D43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="E43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="F43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>308.0818086878571</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>494.3733870261211</v>
       </c>
       <c r="N43" t="n">
         <v>677.5630210573304</v>
@@ -7594,25 +7596,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S43" t="n">
-        <v>806.3890324773372</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>570.6699806455713</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U43" t="n">
-        <v>285.2311888874722</v>
+        <v>727.847098413902</v>
       </c>
       <c r="V43" t="n">
-        <v>285.2311888874722</v>
+        <v>461.8677532347263</v>
       </c>
       <c r="W43" t="n">
-        <v>285.2311888874722</v>
+        <v>178.5373511659039</v>
       </c>
       <c r="X43" t="n">
-        <v>285.2311888874722</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1687.93534806666</v>
+        <v>1392.235630404049</v>
       </c>
       <c r="C44" t="n">
-        <v>1294.75984656959</v>
+        <v>999.0601289069798</v>
       </c>
       <c r="D44" t="n">
-        <v>1294.75984656959</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="E44" t="n">
-        <v>892.1763216861347</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="F44" t="n">
-        <v>475.2818832161124</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G44" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129434</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404052</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7661,37 +7663,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491297</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432348</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>2834.42641982719</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205776</v>
+        <v>2578.673690261789</v>
       </c>
       <c r="V44" t="n">
-        <v>2874.373407924399</v>
+        <v>2578.673690261789</v>
       </c>
       <c r="W44" t="n">
-        <v>2874.373407924399</v>
+        <v>2578.673690261789</v>
       </c>
       <c r="X44" t="n">
-        <v>2484.920802857455</v>
+        <v>2189.221085194845</v>
       </c>
       <c r="Y44" t="n">
-        <v>2088.430093778056</v>
+        <v>1792.730376115446</v>
       </c>
     </row>
     <row r="45">
@@ -7710,10 +7712,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F45" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G45" t="n">
         <v>199.803798091603</v>
@@ -7722,25 +7724,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860693</v>
       </c>
       <c r="L45" t="n">
-        <v>346.0196676966397</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>973.7913173233209</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>217.7522408016008</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="C46" t="n">
-        <v>217.7522408016008</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="D46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="E46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="F46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K46" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>308.0818086878571</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>494.3733870261211</v>
       </c>
       <c r="N46" t="n">
         <v>677.5630210573304</v>
@@ -7828,28 +7830,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R46" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S46" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U46" t="n">
-        <v>217.7522408016008</v>
+        <v>796.636893643415</v>
       </c>
       <c r="V46" t="n">
-        <v>217.7522408016008</v>
+        <v>530.6575484642392</v>
       </c>
       <c r="W46" t="n">
-        <v>217.7522408016008</v>
+        <v>247.3271463954168</v>
       </c>
       <c r="X46" t="n">
-        <v>217.7522408016008</v>
+        <v>247.3271463954168</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.7522408016008</v>
+        <v>247.3271463954168</v>
       </c>
     </row>
   </sheetData>
@@ -7994,7 +7996,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8058,22 +8060,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>438.5811111539143</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8292,16 +8294,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M6" t="n">
-        <v>647.2923877624991</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
         <v>747.7741039759435</v>
@@ -8310,7 +8312,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8535,7 +8537,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>726.4998994499999</v>
@@ -8547,7 +8549,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8769,13 +8771,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>112.3087888732267</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>438.5811111539143</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8784,10 +8786,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9015,16 +9017,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>136.3731801151487</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,10 +9242,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9252,16 +9254,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9483,7 +9485,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
         <v>726.4998994499999</v>
@@ -9495,7 +9497,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9717,16 +9719,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>377.3304183063261</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9737,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>204.7702368236083</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9954,7 +9956,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>203.3790190010273</v>
       </c>
       <c r="L27" t="n">
         <v>90.06034685691823</v>
@@ -9966,13 +9968,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>168.5060516210921</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10197,19 +10199,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O30" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,10 +10427,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>105.1563108732267</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
@@ -10437,7 +10439,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>89.59693533333335</v>
@@ -10677,10 +10679,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>535.2177063841971</v>
       </c>
       <c r="P36" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10902,13 +10904,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>517.3131487114046</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
@@ -10917,7 +10919,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11136,16 +11138,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>163.9964000092959</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
@@ -11157,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11315,7 +11317,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11373,25 +11375,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>376.8285690715891</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.1621296645566304</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>337.1698304437006</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22708,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,19 +22752,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>210.2831670182383</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -22781,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>342.3466574280233</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>50.70553828034934</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -22829,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22942,28 +22944,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>22.31857408728007</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22990,13 +22992,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>115.466682045525</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>364.325813167689</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -23075,16 +23077,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>266.3655607585338</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23182,25 +23184,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182383</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -23261,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>152.8755068951987</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>254.1577494003207</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23312,16 +23314,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,25 +23421,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182383</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>34.49305873538362</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>77.08810956450372</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23658,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004174</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>23.65888910788263</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23674,7 +23676,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>34.4930587353839</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>18.10344448772086</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23890,7 +23892,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>42.85541057795889</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>123.2694091388851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
@@ -23975,16 +23977,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24017,13 +24019,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>64.54677986190976</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>87.71942262044439</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>75.99560131388657</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
         <v>166.5715133615489</v>
@@ -24148,7 +24150,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24175,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182379</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24221,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>115.1192419472765</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>87.71942262044456</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24412,22 +24414,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>87.62118754448963</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947457</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -24452,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>33.76365011474712</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>93.68431935810236</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>24.04094380275532</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
@@ -24616,13 +24618,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>106.1561713834715</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>1.867748656681755</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>100.2017043817079</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -24850,10 +24852,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
         <v>131.7634811092929</v>
@@ -24889,7 +24891,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5844038405181</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>161.1802841880369</v>
+        <v>194.166352876027</v>
       </c>
     </row>
     <row r="32">
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>353.2373996014368</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24965,16 +24967,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>32.65629063227294</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25075,22 +25077,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>60.39847475326049</v>
       </c>
       <c r="I34" t="n">
         <v>131.7634811092929</v>
@@ -25126,16 +25128,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>167.3303626133472</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>273.9451308750987</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -25160,7 +25162,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>132.534363476562</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25333,7 +25335,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
         <v>282.5844038405181</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>115.6083692242648</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>104.004557025751</v>
       </c>
     </row>
     <row r="38">
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
@@ -25400,16 +25402,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>1.867748656681783</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>193.733933750703</v>
       </c>
     </row>
     <row r="39">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.83064772952768</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,10 +25569,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>9.052380812794315</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>152.3195699869362</v>
       </c>
       <c r="H41" t="n">
         <v>320.8422199291742</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
@@ -25691,7 +25693,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>189.9325545642683</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>45.18257638862872</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>116.4854777676762</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25868,13 +25870,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>154.9123347770711</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>109.4185936949529</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>101.0403972573647</v>
+        <v>117.3244398042876</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>674644.2280091876</v>
+        <v>674644.2280091874</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>674644.2280091874</v>
+        <v>674644.2280091876</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>674644.2280091874</v>
+        <v>674644.2280091876</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>674644.2280091876</v>
+        <v>674644.2280091874</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>674644.2280091874</v>
+        <v>674644.2280091876</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>674644.2280091876</v>
+        <v>674644.2280091875</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>674644.2280091874</v>
+        <v>674644.2280091876</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>674644.2280091874</v>
+        <v>674644.2280091876</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>674644.2280091874</v>
+        <v>674644.2280091876</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>674644.2280091875</v>
+        <v>674644.2280091876</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>674644.2280091875</v>
+        <v>674644.2280091876</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>674644.2280091875</v>
+        <v>674644.2280091873</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>674644.2280091874</v>
+        <v>674644.2280091873</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241723.0823229923</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="C2" t="n">
-        <v>241723.0823229923</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="D2" t="n">
         <v>241723.0823229922</v>
@@ -26323,10 +26325,10 @@
         <v>241723.0823229922</v>
       </c>
       <c r="F2" t="n">
+        <v>241723.0823229923</v>
+      </c>
+      <c r="G2" t="n">
         <v>241723.0823229922</v>
-      </c>
-      <c r="G2" t="n">
-        <v>241723.0823229923</v>
       </c>
       <c r="H2" t="n">
         <v>241723.0823229923</v>
@@ -26335,25 +26337,25 @@
         <v>241723.0823229922</v>
       </c>
       <c r="J2" t="n">
-        <v>241723.0823229922</v>
+        <v>241723.0823229923</v>
       </c>
       <c r="K2" t="n">
         <v>241723.0823229922</v>
       </c>
       <c r="L2" t="n">
+        <v>241723.0823229923</v>
+      </c>
+      <c r="M2" t="n">
         <v>241723.0823229922</v>
       </c>
-      <c r="M2" t="n">
-        <v>241723.0823229923</v>
-      </c>
       <c r="N2" t="n">
-        <v>241723.0823229923</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="O2" t="n">
         <v>241723.0823229922</v>
       </c>
       <c r="P2" t="n">
-        <v>241723.0823229923</v>
+        <v>241723.0823229921</v>
       </c>
     </row>
     <row r="3">
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26357.40659176976</v>
+        <v>26357.40659176977</v>
       </c>
       <c r="C4" t="n">
         <v>26357.40659176976</v>
@@ -26476,7 +26478,7 @@
         <v>80838.13705512779</v>
       </c>
       <c r="E5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="F5" t="n">
         <v>47210.5370551278</v>
@@ -26500,16 +26502,16 @@
         <v>47210.5370551278</v>
       </c>
       <c r="M5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="N5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="O5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512778</v>
       </c>
       <c r="P5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512778</v>
       </c>
     </row>
     <row r="6">
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-125691.8167437341</v>
+        <v>-125691.8167437342</v>
       </c>
       <c r="C6" t="n">
-        <v>134527.5386760947</v>
+        <v>134527.5386760946</v>
       </c>
       <c r="D6" t="n">
         <v>134527.5386760947</v>
@@ -26531,37 +26533,37 @@
         <v>168155.1386760946</v>
       </c>
       <c r="F6" t="n">
+        <v>168155.1386760947</v>
+      </c>
+      <c r="G6" t="n">
         <v>168155.1386760946</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>168155.1386760947</v>
       </c>
-      <c r="H6" t="n">
-        <v>168155.1386760948</v>
-      </c>
       <c r="I6" t="n">
+        <v>168155.1386760946</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-35008.57443660029</v>
+      </c>
+      <c r="K6" t="n">
+        <v>168155.1386760946</v>
+      </c>
+      <c r="L6" t="n">
         <v>168155.1386760947</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-35008.57443660038</v>
-      </c>
-      <c r="K6" t="n">
-        <v>168155.1386760947</v>
-      </c>
-      <c r="L6" t="n">
-        <v>168155.1386760946</v>
       </c>
       <c r="M6" t="n">
         <v>168155.1386760947</v>
       </c>
       <c r="N6" t="n">
+        <v>168155.1386760946</v>
+      </c>
+      <c r="O6" t="n">
         <v>168155.1386760947</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>168155.1386760946</v>
-      </c>
-      <c r="P6" t="n">
-        <v>168155.1386760947</v>
       </c>
     </row>
   </sheetData>
@@ -26796,7 +26798,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="F4" t="n">
         <v>776.4890963014441</v>
@@ -26820,16 +26822,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
     </row>
   </sheetData>
@@ -34714,7 +34716,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>346.1939891046024</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35012,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M6" t="n">
-        <v>554.9052657131872</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
         <v>662.4019911217769</v>
@@ -35030,7 +35032,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35255,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>634.1127774006881</v>
@@ -35267,7 +35269,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>22.71185353989334</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35504,10 +35506,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35735,16 +35737,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>51.00106726098203</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35972,16 +35974,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
         <v>634.1127774006881</v>
@@ -36215,7 +36217,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36457,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>113.7820836676943</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>113.782083667694</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,13 +36688,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>75.81849273220321</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,19 +36919,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O30" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>22.71185353989334</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
@@ -37157,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37397,10 +37399,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>442.5301474953082</v>
       </c>
       <c r="P36" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>424.9260266620927</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
@@ -37637,7 +37639,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>73.93605315237764</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
@@ -37877,7 +37879,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>286.7682222146709</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>965407.5191529959</v>
+        <v>960873.6959834979</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7800994.142117398</v>
+        <v>7800994.142117397</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.4245878309423</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -676,10 +676,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>258.4752663365485</v>
       </c>
     </row>
     <row r="3">
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54.14314082625967</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>44.83656292883415</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>131.6846499321094</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>115.2540412271705</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -1144,10 +1144,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>119.1925182577399</v>
+        <v>83.34523385739431</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1347,13 +1347,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>53.03638470914571</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>72.30123682227976</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>245.6821827394222</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5684977860507</v>
       </c>
     </row>
     <row r="12">
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>233.3618613134482</v>
@@ -1587,10 +1587,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>53.03638470914571</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>409.0311279568768</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>87.76030994385621</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>57.94452001269362</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>142.9126242536663</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.8666172744861</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>361.996739518899</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>383.1140606003746</v>
       </c>
       <c r="G17" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>125.6476561767118</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>92.31340177010368</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
@@ -2098,10 +2098,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>133.5461737957331</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>53.03638470914613</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>212.3952007709163</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>229.2671475085637</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
@@ -2335,7 +2335,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>165.4757796493028</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
         <v>282.5844038405181</v>
@@ -2538,10 +2538,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X25" t="n">
-        <v>66.03149870010103</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>92.31340177010368</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -2572,10 +2572,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>287.0785698144271</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>159.3149947016329</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,25 +2794,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>135.0859970817781</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>191.0982260229669</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y31" t="n">
-        <v>26.71458769549607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.192128876087</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
         <v>221.2655964161775</v>
@@ -3088,16 +3088,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>345.6613168456319</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>93.52529077486047</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
@@ -3283,10 +3283,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>4.419382261897811</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>260.4059240983868</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>116.876383545772</v>
+        <v>113.1667354347865</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
@@ -3553,25 +3553,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>45.07477775774912</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>198.7918682379019</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3669,22 +3669,22 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>21.02210665936476</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>8.855771537814876</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>138.4584808820092</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>256.7115579699407</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>21.2710444415848</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>115.2540412271705</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,13 +3982,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>191.6541629312303</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>409.0311279568768</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>66.35326163910644</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>165.2599640362304</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>175.3478264080952</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2142.457375356031</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C2" t="n">
-        <v>2142.457375356031</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D2" t="n">
-        <v>1757.180013910635</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E2" t="n">
-        <v>1354.596489027179</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F2" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G2" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H2" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I2" t="n">
         <v>62.11912770411553</v>
@@ -4357,25 +4357,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S2" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T2" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U2" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V2" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W2" t="n">
-        <v>2939.442830146827</v>
+        <v>2734.957350174064</v>
       </c>
       <c r="X2" t="n">
-        <v>2939.442830146827</v>
+        <v>2734.957350174064</v>
       </c>
       <c r="Y2" t="n">
-        <v>2542.952121067428</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J3" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K3" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L3" t="n">
-        <v>545.6852136024288</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M3" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N3" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O3" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P3" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q3" t="n">
         <v>2380.454662679751</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D4" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E4" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F4" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G4" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H4" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J4" t="n">
         <v>62.11912770411553</v>
@@ -4518,22 +4518,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T4" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U4" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V4" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>868.4573847131818</v>
+        <v>1263.3065368829</v>
       </c>
       <c r="C5" t="n">
-        <v>475.2818832161124</v>
+        <v>1263.3065368829</v>
       </c>
       <c r="D5" t="n">
-        <v>475.2818832161124</v>
+        <v>877.865408099568</v>
       </c>
       <c r="E5" t="n">
         <v>475.2818832161124</v>
@@ -4558,13 +4558,13 @@
         <v>475.2818832161124</v>
       </c>
       <c r="G5" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H5" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I5" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J5" t="n">
         <v>206.7689006129436</v>
@@ -4609,10 +4609,10 @@
         <v>1709.09074009817</v>
       </c>
       <c r="X5" t="n">
-        <v>1319.638135031227</v>
+        <v>1663.801282594297</v>
       </c>
       <c r="Y5" t="n">
-        <v>923.1474259518279</v>
+        <v>1663.801282594297</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L6" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M6" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N6" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O6" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P6" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q6" t="n">
         <v>2380.454662679751</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C7" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D7" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E7" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F7" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G7" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H7" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J7" t="n">
         <v>62.11912770411553</v>
@@ -4749,28 +4749,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S7" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T7" t="n">
-        <v>839.6651608782449</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U7" t="n">
-        <v>839.6651608782449</v>
+        <v>727.847098413902</v>
       </c>
       <c r="V7" t="n">
-        <v>839.6651608782449</v>
+        <v>461.8677532347263</v>
       </c>
       <c r="W7" t="n">
-        <v>839.6651608782449</v>
+        <v>178.5373511659039</v>
       </c>
       <c r="X7" t="n">
-        <v>839.6651608782449</v>
+        <v>178.5373511659039</v>
       </c>
       <c r="Y7" t="n">
-        <v>839.6651608782449</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>996.2152709921756</v>
+        <v>1826.272464974195</v>
       </c>
       <c r="C8" t="n">
-        <v>603.0397694951062</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="D8" t="n">
-        <v>603.0397694951062</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E8" t="n">
-        <v>200.4562446116507</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F8" t="n">
-        <v>200.4562446116507</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G8" t="n">
         <v>200.4562446116507</v>
@@ -4801,7 +4801,7 @@
         <v>200.4562446116507</v>
       </c>
       <c r="I8" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J8" t="n">
         <v>206.7689006129436</v>
@@ -4828,28 +4828,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S8" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T8" t="n">
-        <v>2882.455782765193</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U8" t="n">
-        <v>2626.703053199792</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V8" t="n">
-        <v>2284.59624390331</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W8" t="n">
-        <v>1913.597208871598</v>
+        <v>2306.950278960053</v>
       </c>
       <c r="X8" t="n">
-        <v>1793.200725782971</v>
+        <v>2222.763174053594</v>
       </c>
       <c r="Y8" t="n">
-        <v>1396.710016703573</v>
+        <v>1826.272464974195</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K9" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L9" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M9" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N9" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O9" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P9" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4995,10 +4995,10 @@
         <v>401.1300252290284</v>
       </c>
       <c r="U10" t="n">
-        <v>115.6912334709294</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="V10" t="n">
-        <v>62.11912770411553</v>
+        <v>135.1506800498527</v>
       </c>
       <c r="W10" t="n">
         <v>62.11912770411553</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1918.956772915448</v>
+        <v>1809.130068874072</v>
       </c>
       <c r="C11" t="n">
-        <v>1525.781271418378</v>
+        <v>1415.954567377002</v>
       </c>
       <c r="D11" t="n">
-        <v>1140.340142635046</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="E11" t="n">
-        <v>892.1763216861345</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F11" t="n">
-        <v>475.2818832161124</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411552</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411552</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
         <v>206.7689006129436</v>
@@ -5077,16 +5077,16 @@
         <v>2715.942227706244</v>
       </c>
       <c r="V11" t="n">
-        <v>2715.942227706244</v>
+        <v>2373.835418409762</v>
       </c>
       <c r="W11" t="n">
-        <v>2715.942227706244</v>
+        <v>2373.835418409762</v>
       </c>
       <c r="X11" t="n">
-        <v>2715.942227706244</v>
+        <v>2373.835418409762</v>
       </c>
       <c r="Y11" t="n">
-        <v>2319.451518626845</v>
+        <v>2209.624814585468</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.156408878212</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K13" t="n">
         <v>143.9541688140574</v>
@@ -5223,28 +5223,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R13" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S13" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T13" t="n">
-        <v>401.1300252290284</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U13" t="n">
-        <v>115.6912334709294</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V13" t="n">
-        <v>62.11912770411552</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1294.75984656959</v>
+        <v>1656.48203837997</v>
       </c>
       <c r="C14" t="n">
-        <v>1294.75984656959</v>
+        <v>1263.3065368829</v>
       </c>
       <c r="D14" t="n">
-        <v>1294.75984656959</v>
+        <v>877.865408099568</v>
       </c>
       <c r="E14" t="n">
-        <v>892.1763216861347</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="F14" t="n">
         <v>475.2818832161124</v>
@@ -5302,28 +5302,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S14" t="n">
-        <v>3017.309607484709</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T14" t="n">
-        <v>2793.809005044126</v>
+        <v>2842.920098237709</v>
       </c>
       <c r="U14" t="n">
-        <v>2793.809005044126</v>
+        <v>2842.920098237709</v>
       </c>
       <c r="V14" t="n">
-        <v>2451.702195747645</v>
+        <v>2842.920098237709</v>
       </c>
       <c r="W14" t="n">
-        <v>2080.703160715932</v>
+        <v>2842.920098237709</v>
       </c>
       <c r="X14" t="n">
-        <v>1691.250555648989</v>
+        <v>2453.467493170765</v>
       </c>
       <c r="Y14" t="n">
-        <v>1294.75984656959</v>
+        <v>2056.976784091366</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>807.9330371481826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>652.3742250073851</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>495.0482902203581</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>350.6921041055436</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5460,28 +5460,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R16" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S16" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="T16" t="n">
-        <v>963.5661502456679</v>
+        <v>613.5372646413903</v>
       </c>
       <c r="U16" t="n">
-        <v>963.5661502456679</v>
+        <v>328.0984728832913</v>
       </c>
       <c r="V16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="W16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2535.796644191037</v>
+        <v>1658.024809192975</v>
       </c>
       <c r="C17" t="n">
-        <v>2142.621142693967</v>
+        <v>1264.849307695906</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.180013910635</v>
+        <v>1264.849307695906</v>
       </c>
       <c r="E17" t="n">
-        <v>1354.596489027179</v>
+        <v>862.2657828124504</v>
       </c>
       <c r="F17" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G17" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H17" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5542,25 +5542,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S17" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T17" t="n">
-        <v>2901.449916432349</v>
+        <v>2844.462869050715</v>
       </c>
       <c r="U17" t="n">
-        <v>2901.449916432349</v>
+        <v>2844.462869050715</v>
       </c>
       <c r="V17" t="n">
-        <v>2901.449916432349</v>
+        <v>2844.462869050715</v>
       </c>
       <c r="W17" t="n">
-        <v>2901.449916432349</v>
+        <v>2844.462869050715</v>
       </c>
       <c r="X17" t="n">
-        <v>2901.449916432349</v>
+        <v>2455.010263983771</v>
       </c>
       <c r="Y17" t="n">
-        <v>2901.449916432349</v>
+        <v>2058.519554904372</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N18" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.0359521250365</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C19" t="n">
         <v>62.11912770411553</v>
@@ -5703,22 +5703,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T19" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U19" t="n">
-        <v>678.1273584875689</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V19" t="n">
-        <v>412.1480133083932</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W19" t="n">
-        <v>412.1480133083932</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="X19" t="n">
-        <v>412.1480133083932</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y19" t="n">
-        <v>189.0359521250365</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1216.259372119644</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C20" t="n">
-        <v>1216.259372119644</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D20" t="n">
-        <v>1216.259372119644</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E20" t="n">
-        <v>1216.259372119644</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F20" t="n">
-        <v>799.3649336496217</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2021781376249</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5782,22 +5782,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T20" t="n">
-        <v>2971.061260159581</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U20" t="n">
-        <v>2715.30853059418</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V20" t="n">
-        <v>2373.201721297698</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W20" t="n">
-        <v>2002.202686265986</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X20" t="n">
-        <v>1612.750081199043</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y20" t="n">
-        <v>1216.259372119644</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="21">
@@ -5843,10 +5843,10 @@
         <v>1173.45686322911</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
         <v>2380.454662679751</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R22" t="n">
-        <v>2982.055395838353</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S22" t="n">
-        <v>2779.239312020903</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>2543.520260189137</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U22" t="n">
-        <v>2258.081468431038</v>
+        <v>727.847098413902</v>
       </c>
       <c r="V22" t="n">
-        <v>2204.509362664224</v>
+        <v>461.8677532347263</v>
       </c>
       <c r="W22" t="n">
-        <v>2204.509362664224</v>
+        <v>461.8677532347263</v>
       </c>
       <c r="X22" t="n">
-        <v>2204.509362664224</v>
+        <v>247.3271463954168</v>
       </c>
       <c r="Y22" t="n">
-        <v>2204.509362664224</v>
+        <v>247.3271463954168</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1216.259372119644</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C23" t="n">
-        <v>1216.259372119644</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D23" t="n">
-        <v>1216.259372119644</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E23" t="n">
-        <v>1216.259372119644</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F23" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G23" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6019,22 +6019,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T23" t="n">
-        <v>2882.455782765193</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U23" t="n">
-        <v>2715.30853059418</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V23" t="n">
-        <v>2373.201721297698</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W23" t="n">
-        <v>2002.202686265986</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X23" t="n">
-        <v>1612.750081199043</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y23" t="n">
-        <v>1216.259372119644</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="24">
@@ -6074,19 +6074,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>62.11912770411553</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>689.8907773307967</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N24" t="n">
-        <v>1345.668748541356</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>1862.189031132337</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2267.810399848734</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>3105.956385205776</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U25" t="n">
-        <v>2820.517593447677</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V25" t="n">
-        <v>2554.538248268502</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W25" t="n">
-        <v>2271.207846199679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2363.354830197898</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C26" t="n">
-        <v>1970.179328700829</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D26" t="n">
-        <v>1584.738199917496</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E26" t="n">
-        <v>1182.154675034041</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F26" t="n">
-        <v>765.2602365640186</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G26" t="n">
-        <v>352.0974810520217</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411551</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I26" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J26" t="n">
         <v>206.7689006129436</v>
@@ -6262,16 +6262,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="V26" t="n">
-        <v>2763.849575909295</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W26" t="n">
-        <v>2763.849575909295</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X26" t="n">
-        <v>2763.849575909295</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y26" t="n">
-        <v>2763.849575909295</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K27" t="n">
-        <v>174.7633905351325</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L27" t="n">
-        <v>174.7633905351325</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M27" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N27" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O27" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P27" t="n">
         <v>2380.454662679751</v>
@@ -6417,19 +6417,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U28" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V28" t="n">
-        <v>963.5661502456679</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W28" t="n">
-        <v>680.2357481768456</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X28" t="n">
-        <v>446.1554259598287</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y28" t="n">
-        <v>223.043364776472</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>522.652680240431</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C29" t="n">
-        <v>522.652680240431</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D29" t="n">
-        <v>522.652680240431</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E29" t="n">
-        <v>522.652680240431</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F29" t="n">
-        <v>522.652680240431</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G29" t="n">
-        <v>522.652680240431</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H29" t="n">
-        <v>198.5696298069216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J29" t="n">
         <v>206.7689006129436</v>
@@ -6496,19 +6496,19 @@
         <v>2677.949313991765</v>
       </c>
       <c r="U29" t="n">
-        <v>2422.196584426364</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V29" t="n">
-        <v>2080.089775129883</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W29" t="n">
-        <v>1709.09074009817</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X29" t="n">
-        <v>1319.638135031227</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y29" t="n">
-        <v>923.1474259518279</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K30" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L30" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M30" t="n">
-        <v>865.4243596646552</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N30" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O30" t="n">
-        <v>1740.468202408463</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="P30" t="n">
-        <v>2146.089571124861</v>
+        <v>2234.856203156066</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2374.714480598234</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K31" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L31" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M31" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N31" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O31" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P31" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>2870.237333374011</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U31" t="n">
-        <v>2870.237333374011</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V31" t="n">
-        <v>2870.237333374011</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W31" t="n">
-        <v>2586.906931305188</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X31" t="n">
-        <v>2586.906931305188</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y31" t="n">
-        <v>2559.922499289536</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>593.6317461087201</v>
+        <v>1740.037617810512</v>
       </c>
       <c r="C32" t="n">
-        <v>200.4562446116507</v>
+        <v>1740.037617810512</v>
       </c>
       <c r="D32" t="n">
-        <v>200.4562446116507</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="E32" t="n">
-        <v>200.4562446116507</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F32" t="n">
-        <v>200.4562446116507</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G32" t="n">
-        <v>200.4562446116507</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H32" t="n">
         <v>200.4562446116507</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J32" t="n">
         <v>206.7689006129436</v>
@@ -6727,25 +6727,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>2972.428982300638</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T32" t="n">
-        <v>2748.928379860055</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U32" t="n">
-        <v>2493.175650294653</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V32" t="n">
-        <v>2151.068840998172</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="W32" t="n">
-        <v>1780.069805966459</v>
+        <v>2089.19046310913</v>
       </c>
       <c r="X32" t="n">
-        <v>1390.617200899516</v>
+        <v>1740.037617810512</v>
       </c>
       <c r="Y32" t="n">
-        <v>994.1264918201171</v>
+        <v>1740.037617810512</v>
       </c>
     </row>
     <row r="33">
@@ -6788,16 +6788,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N33" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O33" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P33" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C34" t="n">
-        <v>2935.751267271766</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D34" t="n">
-        <v>2780.11815417428</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E34" t="n">
-        <v>2624.559342033483</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F34" t="n">
-        <v>2467.233407246455</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G34" t="n">
-        <v>2298.979353345901</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P34" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>3105.956385205776</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U34" t="n">
-        <v>3105.956385205776</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V34" t="n">
-        <v>3105.956385205776</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W34" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X34" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y34" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1206.412481019843</v>
+        <v>1656.48203837997</v>
       </c>
       <c r="C35" t="n">
-        <v>1206.412481019843</v>
+        <v>1263.3065368829</v>
       </c>
       <c r="D35" t="n">
-        <v>1206.412481019843</v>
+        <v>877.865408099568</v>
       </c>
       <c r="E35" t="n">
-        <v>803.8289561363872</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="F35" t="n">
-        <v>803.8289561363872</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G35" t="n">
-        <v>390.6662006243903</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H35" t="n">
-        <v>66.58315019088099</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6955,7 +6955,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
@@ -6973,16 +6973,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="V35" t="n">
-        <v>2763.849575909294</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W35" t="n">
-        <v>2392.850540877582</v>
+        <v>2842.920098237709</v>
       </c>
       <c r="X35" t="n">
-        <v>2003.397935810639</v>
+        <v>2453.467493170765</v>
       </c>
       <c r="Y35" t="n">
-        <v>1606.90722673124</v>
+        <v>2056.976784091366</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="K36" t="n">
-        <v>175.2341099238429</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="L36" t="n">
-        <v>658.8001958221562</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M36" t="n">
-        <v>1286.571845448837</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1942.349816659396</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C37" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D37" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E37" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F37" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G37" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H37" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I37" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>2286.344403774165</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>2982.658023059146</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>3105.956385205776</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U37" t="n">
-        <v>3105.956385205776</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V37" t="n">
-        <v>2839.9770400266</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W37" t="n">
-        <v>2556.646637957778</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="X37" t="n">
-        <v>2322.566315740761</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="Y37" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1285.351823183204</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C38" t="n">
-        <v>892.1763216861345</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D38" t="n">
-        <v>892.1763216861345</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E38" t="n">
-        <v>892.1763216861345</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F38" t="n">
         <v>475.2818832161124</v>
       </c>
       <c r="G38" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H38" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7192,7 +7192,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
@@ -7201,25 +7201,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S38" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T38" t="n">
-        <v>2844.462869050714</v>
+        <v>2855.919837889168</v>
       </c>
       <c r="U38" t="n">
-        <v>2588.710139485313</v>
+        <v>2855.919837889168</v>
       </c>
       <c r="V38" t="n">
-        <v>2246.603330188831</v>
+        <v>2855.919837889168</v>
       </c>
       <c r="W38" t="n">
-        <v>1875.604295157119</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="X38" t="n">
-        <v>1486.151690090176</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y38" t="n">
-        <v>1285.351823183204</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
         <v>545.6852136024288</v>
@@ -7265,10 +7265,10 @@
         <v>1173.45686322911</v>
       </c>
       <c r="N39" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
         <v>2380.454662679751</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>697.5868050664922</v>
+        <v>385.851732643176</v>
       </c>
       <c r="C40" t="n">
-        <v>697.5868050664922</v>
+        <v>385.851732643176</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5868050664922</v>
+        <v>385.851732643176</v>
       </c>
       <c r="E40" t="n">
-        <v>542.0279929256947</v>
+        <v>385.851732643176</v>
       </c>
       <c r="F40" t="n">
-        <v>384.7020581386676</v>
+        <v>385.851732643176</v>
       </c>
       <c r="G40" t="n">
-        <v>216.4480042381132</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H40" t="n">
-        <v>216.4480042381132</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I40" t="n">
-        <v>83.35357887519103</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
         <v>143.9541688140574</v>
@@ -7365,19 +7365,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U40" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V40" t="n">
-        <v>697.5868050664922</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="W40" t="n">
-        <v>697.5868050664922</v>
+        <v>394.7969564187466</v>
       </c>
       <c r="X40" t="n">
-        <v>697.5868050664922</v>
+        <v>385.851732643176</v>
       </c>
       <c r="Y40" t="n">
-        <v>697.5868050664922</v>
+        <v>385.851732643176</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1919.518325348036</v>
+        <v>1410.897960992606</v>
       </c>
       <c r="C41" t="n">
-        <v>1526.342823850967</v>
+        <v>1017.722459495537</v>
       </c>
       <c r="D41" t="n">
-        <v>1140.901695067634</v>
+        <v>877.865408099568</v>
       </c>
       <c r="E41" t="n">
-        <v>738.3181701841788</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="F41" t="n">
-        <v>321.4237317141566</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129432</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.751256640405</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
         <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N41" t="n">
         <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205775</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205775</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U41" t="n">
-        <v>3105.956385205775</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V41" t="n">
-        <v>3105.956385205775</v>
+        <v>2597.336020850345</v>
       </c>
       <c r="W41" t="n">
-        <v>3105.956385205775</v>
+        <v>2597.336020850345</v>
       </c>
       <c r="X41" t="n">
-        <v>2716.503780138832</v>
+        <v>2207.883415783402</v>
       </c>
       <c r="Y41" t="n">
-        <v>2320.013071059433</v>
+        <v>1811.392706704003</v>
       </c>
     </row>
     <row r="42">
@@ -7475,10 +7475,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E42" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F42" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G42" t="n">
         <v>199.803798091603</v>
@@ -7487,16 +7487,16 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860693</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>568.1699486069232</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
         <v>568.1699486069232</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.11912770411551</v>
+        <v>394.7969564187466</v>
       </c>
       <c r="C43" t="n">
-        <v>62.11912770411551</v>
+        <v>394.7969564187466</v>
       </c>
       <c r="D43" t="n">
-        <v>62.11912770411551</v>
+        <v>239.1638433212613</v>
       </c>
       <c r="E43" t="n">
-        <v>62.11912770411551</v>
+        <v>83.60503118046381</v>
       </c>
       <c r="F43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
         <v>677.5630210573304</v>
@@ -7599,22 +7599,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>727.847098413902</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U43" t="n">
-        <v>727.847098413902</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V43" t="n">
-        <v>461.8677532347263</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="W43" t="n">
-        <v>178.5373511659039</v>
+        <v>394.7969564187466</v>
       </c>
       <c r="X43" t="n">
-        <v>62.11912770411551</v>
+        <v>394.7969564187466</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.11912770411551</v>
+        <v>394.7969564187466</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1392.235630404049</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C44" t="n">
-        <v>999.0601289069798</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D44" t="n">
-        <v>613.6190001236475</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E44" t="n">
-        <v>613.6190001236475</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F44" t="n">
-        <v>613.6190001236475</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G44" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129434</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404052</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7663,37 +7663,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3067.963471491297</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S44" t="n">
-        <v>2901.449916432348</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T44" t="n">
-        <v>2834.42641982719</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U44" t="n">
-        <v>2578.673690261789</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V44" t="n">
-        <v>2578.673690261789</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W44" t="n">
-        <v>2578.673690261789</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X44" t="n">
-        <v>2189.221085194845</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y44" t="n">
-        <v>1792.730376115446</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="45">
@@ -7712,10 +7712,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
         <v>199.803798091603</v>
@@ -7724,16 +7724,16 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860693</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M45" t="n">
         <v>1223.947919817482</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>62.11912770411551</v>
+        <v>217.677939844913</v>
       </c>
       <c r="C46" t="n">
-        <v>62.11912770411551</v>
+        <v>217.677939844913</v>
       </c>
       <c r="D46" t="n">
-        <v>62.11912770411551</v>
+        <v>217.677939844913</v>
       </c>
       <c r="E46" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F46" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G46" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H46" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
         <v>677.5630210573304</v>
@@ -7839,19 +7839,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U46" t="n">
-        <v>796.636893643415</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V46" t="n">
-        <v>530.6575484642392</v>
+        <v>501.0083419137354</v>
       </c>
       <c r="W46" t="n">
-        <v>247.3271463954168</v>
+        <v>217.677939844913</v>
       </c>
       <c r="X46" t="n">
-        <v>247.3271463954168</v>
+        <v>217.677939844913</v>
       </c>
       <c r="Y46" t="n">
-        <v>247.3271463954168</v>
+        <v>217.677939844913</v>
       </c>
     </row>
   </sheetData>
@@ -7996,10 +7996,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,19 +8057,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>192.2856137303845</v>
       </c>
       <c r="M3" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>373.1055958271594</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8078,7 +8078,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8294,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8531,28 +8531,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8777,16 +8777,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>438.5811111539143</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9005,25 +9005,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9242,10 +9242,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9254,16 +9254,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>220.8844470939643</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9491,13 +9491,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9722,13 +9722,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9737,7 +9737,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9956,10 +9956,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>203.3790190010273</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
@@ -9971,7 +9971,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10193,25 +10193,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>238.0573041899393</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10436,19 +10436,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>133.4455245943154</v>
       </c>
       <c r="K36" t="n">
         <v>89.59693533333335</v>
@@ -10676,16 +10676,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>535.2177063841971</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10913,13 +10913,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11138,16 +11138,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>163.9964000092959</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
@@ -11375,16 +11375,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>133.4455245943154</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
@@ -22549,10 +22549,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1621296645566304</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22564,10 +22564,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,7 +22597,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -22609,13 +22609,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>134.0505356520564</v>
       </c>
     </row>
     <row r="3">
@@ -22710,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22758,16 +22758,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>342.3466574280233</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -22849,10 +22849,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>340.7215160874396</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -22950,22 +22950,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>22.31857408728007</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>105.6268993443526</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23032,10 +23032,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>266.3655607585338</v>
+        <v>302.2128451588794</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23235,13 +23235,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182383</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>208.1958612258544</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>152.8755068951987</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
@@ -23326,7 +23326,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>229.9573042025542</v>
       </c>
     </row>
     <row r="12">
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>210.2831670182383</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>77.08810956450372</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>163.3210764034839</v>
       </c>
       <c r="U14" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>23.65888910788263</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
         <v>30.07448747215907</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>9.495244038962085</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.4930587353839</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>29.61143348494738</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
@@ -23797,10 +23797,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>42.85541057795889</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
@@ -23943,7 +23943,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>118.5727835600602</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>289.2733157253953</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>87.71942262044439</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>210.2831670182379</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>19.34431822393037</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>152.3195699869353</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24259,16 +24259,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>87.71942262044456</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X25" t="n">
-        <v>165.7080202947457</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>289.2733157253953</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>33.76365011474712</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.04094380275532</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
@@ -24657,19 +24657,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>1.867748656681755</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,16 +24736,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>194.4598529933068</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -24891,22 +24891,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.166352876027</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>32.65629063227294</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>39.89676217064181</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25077,22 +25077,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>60.39847475326049</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
         <v>131.7634811092929</v>
@@ -25128,16 +25128,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25156,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>132.534363476562</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,10 +25213,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>106.8831205830086</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>104.004557025751</v>
+        <v>107.7142051367365</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>176.1908186584284</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>193.733933750703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,22 +25557,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>9.052380812794315</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>222.8837474570318</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25633,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>243.1282366134897</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>152.3195699869362</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>320.8422199291742</v>
@@ -25678,7 +25678,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>221.2655964161775</v>
@@ -25687,7 +25687,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
@@ -25791,13 +25791,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>134.481630997572</v>
       </c>
       <c r="G43" t="n">
         <v>166.5715133615489</v>
@@ -25839,19 +25839,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>116.4854777676762</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25870,13 +25870,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>189.9325545642687</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>154.9123347770711</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
@@ -26031,7 +26031,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
@@ -26079,10 +26079,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>117.3244398042876</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>87.97172531928885</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>674644.2280091874</v>
+        <v>674644.2280091875</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>674644.2280091876</v>
+        <v>674644.2280091872</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>674644.2280091874</v>
+        <v>674644.2280091875</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>674644.2280091876</v>
+        <v>674644.2280091874</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>674644.2280091875</v>
+        <v>674644.2280091873</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>674644.2280091876</v>
+        <v>674644.2280091874</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>674644.2280091876</v>
+        <v>674644.2280091874</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>674644.2280091876</v>
+        <v>674644.2280091874</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>674644.2280091876</v>
+        <v>674644.2280091874</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>674644.2280091876</v>
+        <v>674644.2280091875</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>674644.2280091875</v>
+        <v>674644.2280091874</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>674644.2280091876</v>
+        <v>674644.2280091874</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>674644.2280091873</v>
+        <v>674644.2280091874</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>674644.2280091873</v>
+        <v>674644.2280091874</v>
       </c>
     </row>
   </sheetData>
@@ -26331,19 +26331,19 @@
         <v>241723.0823229922</v>
       </c>
       <c r="H2" t="n">
-        <v>241723.0823229923</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="I2" t="n">
         <v>241723.0823229922</v>
       </c>
       <c r="J2" t="n">
-        <v>241723.0823229923</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="K2" t="n">
         <v>241723.0823229922</v>
       </c>
       <c r="L2" t="n">
-        <v>241723.0823229923</v>
+        <v>241723.0823229922</v>
       </c>
       <c r="M2" t="n">
         <v>241723.0823229922</v>
@@ -26352,10 +26352,10 @@
         <v>241723.0823229922</v>
       </c>
       <c r="O2" t="n">
-        <v>241723.0823229922</v>
+        <v>241723.0823229923</v>
       </c>
       <c r="P2" t="n">
-        <v>241723.0823229921</v>
+        <v>241723.0823229923</v>
       </c>
     </row>
     <row r="3">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26357.40659176977</v>
+        <v>26357.40659176976</v>
       </c>
       <c r="C4" t="n">
         <v>26357.40659176976</v>
@@ -26478,7 +26478,7 @@
         <v>80838.13705512779</v>
       </c>
       <c r="E5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="F5" t="n">
         <v>47210.5370551278</v>
@@ -26502,16 +26502,16 @@
         <v>47210.5370551278</v>
       </c>
       <c r="M5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="N5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="O5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.5370551278</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-125691.8167437342</v>
+        <v>-126222.9117755994</v>
       </c>
       <c r="C6" t="n">
-        <v>134527.5386760946</v>
+        <v>133996.4436442294</v>
       </c>
       <c r="D6" t="n">
-        <v>134527.5386760947</v>
+        <v>133996.4436442294</v>
       </c>
       <c r="E6" t="n">
-        <v>168155.1386760946</v>
+        <v>167624.0436442295</v>
       </c>
       <c r="F6" t="n">
-        <v>168155.1386760947</v>
+        <v>167624.0436442295</v>
       </c>
       <c r="G6" t="n">
-        <v>168155.1386760946</v>
+        <v>167624.0436442295</v>
       </c>
       <c r="H6" t="n">
-        <v>168155.1386760947</v>
+        <v>167624.0436442295</v>
       </c>
       <c r="I6" t="n">
-        <v>168155.1386760946</v>
+        <v>167624.0436442295</v>
       </c>
       <c r="J6" t="n">
-        <v>-35008.57443660029</v>
+        <v>-35539.66946846557</v>
       </c>
       <c r="K6" t="n">
-        <v>168155.1386760946</v>
+        <v>167624.0436442295</v>
       </c>
       <c r="L6" t="n">
-        <v>168155.1386760947</v>
+        <v>167624.0436442295</v>
       </c>
       <c r="M6" t="n">
-        <v>168155.1386760947</v>
+        <v>167624.0436442295</v>
       </c>
       <c r="N6" t="n">
-        <v>168155.1386760946</v>
+        <v>167624.0436442295</v>
       </c>
       <c r="O6" t="n">
-        <v>168155.1386760947</v>
+        <v>167624.0436442295</v>
       </c>
       <c r="P6" t="n">
-        <v>168155.1386760946</v>
+        <v>167624.0436442295</v>
       </c>
     </row>
   </sheetData>
@@ -26798,7 +26798,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="E4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
         <v>776.4890963014441</v>
@@ -26822,16 +26822,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="M4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -34716,10 +34716,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>102.2252668734663</v>
       </c>
       <c r="M3" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34798,7 +34798,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35497,16 +35497,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>346.1939891046024</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35974,16 +35974,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>135.5123342397976</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36211,13 +36211,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36457,7 +36457,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>113.782083667694</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
         <v>634.1127774006881</v>
@@ -36691,7 +36691,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>147.0691510340253</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>51.00106726098205</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37396,16 +37396,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>442.5301474953082</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37633,13 +37633,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>73.93605315237764</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>51.00106726098205</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
